--- a/biology/Botanique/Frankenia/Frankenia.xlsx
+++ b/biology/Botanique/Frankenia/Frankenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frankenia  est un genre de plantes dicotylédones de la famille des Frankeniaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Frankenia a été donné en l'honneur du médecin et botaniste suédois Johan Frankenius (1590–1661).
 </t>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Frankenia adpressa Summerh.
@@ -647,10 +663,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Frankenia L.[1].
-Frankenia a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Frankenia L..
+Frankenia a pour synonymes :
 Anthobryum Phil.
 Beatsonia Roxb.
 Franca Boehm.
